--- a/biology/Médecine/1er_régiment_médical/1er_régiment_médical.xlsx
+++ b/biology/Médecine/1er_régiment_médical/1er_régiment_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1er_r%C3%A9giment_m%C3%A9dical</t>
+          <t>1er_régiment_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 1er régiment médical (1er RMED) était un régiment de l'Armée de terre française créé en 1992 et dissous en juin 2011.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1er_r%C3%A9giment_m%C3%A9dical</t>
+          <t>1er_régiment_médical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 1er régiment médical est créé le 1er juillet 1992 à partir du groupement médical de Sedan et de la 21e compagnie médicale du 2e corps d'armée (21e CMCA) de Neustadt an der Weinstraße en Allemagne.
 Sa devise est « Partout pour tous ».
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1er_r%C3%A9giment_m%C3%A9dical</t>
+          <t>1er_régiment_médical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Mission et organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le régiment avait des missions spécifiques santé et des missions communes à toutes les formations de l'Armée de terre.
 Dans le cœur de métier, il intervenait à tous les niveaux dans la prise en charge des blessés d'une force projetée en opération : montage des structures de traitement médico-chirurgical (antennes chirurgicales, hôpitaux médico-chirurgicaux en version « shelters » modulables ou structure métallo-textile), ramassage des blessés à l'avant, évacuation vers l'arrière après traitement initial, ravitaillement sanitaire de toutes les structures de soins, décontamination médicale des blessés radio-contaminés ou intoxiqués par arme chimique.
